--- a/output/non_compartimental_analysis/00 nca_report_stats_sig.xlsx
+++ b/output/non_compartimental_analysis/00 nca_report_stats_sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Danny\análisis fase 1\cat-phase-1-data-analysis\output\non_compartimental_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42BEB3FB-0FA4-4A5A-9F8D-90F01A476E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{38F76B60-6B6C-4058-A4B4-75B12472F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>parameter</t>
   </si>
@@ -41,6 +41,9 @@
     <t>mann_whitney_cat1_cat2</t>
   </si>
   <si>
+    <t>asc_cmax</t>
+  </si>
+  <si>
     <t>894.57 (725.164 - 1014.238)</t>
   </si>
   <si>
@@ -53,6 +56,24 @@
     <t>0.00255230033596326*</t>
   </si>
   <si>
+    <t>asc_tmax</t>
+  </si>
+  <si>
+    <t>30 (30 - 30)</t>
+  </si>
+  <si>
+    <t>90 (90 - 90)</t>
+  </si>
+  <si>
+    <t>60 (0 - 165)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>asc_auc</t>
+  </si>
+  <si>
     <t>1.538 (1.162 - 1.634)</t>
   </si>
   <si>
@@ -65,6 +86,9 @@
     <t>0.00337939533813971*</t>
   </si>
   <si>
+    <t>asc_auc_30_90</t>
+  </si>
+  <si>
     <t>0.703 (0.533 - 0.766)</t>
   </si>
   <si>
@@ -77,6 +101,9 @@
     <t>0.00322493622132542*</t>
   </si>
   <si>
+    <t>asc_c_mean_30_90</t>
+  </si>
+  <si>
     <t>717.81 (550.437 - 788.62)</t>
   </si>
   <si>
@@ -89,31 +116,61 @@
     <t>0.00293687450479019*</t>
   </si>
   <si>
-    <t>0.011 (0.01 - 0.011)</t>
-  </si>
-  <si>
-    <t>0.01 (0.01 - 0.011)</t>
-  </si>
-  <si>
-    <t>65.891 (61.443 - 70.381)</t>
-  </si>
-  <si>
-    <t>67.878 (61.703 - 71.377)</t>
-  </si>
-  <si>
-    <t>9.169 (8.596 - 12.301)</t>
-  </si>
-  <si>
-    <t>10.134 (8.508 - 10.383)</t>
+    <t>asc_ke</t>
+  </si>
+  <si>
+    <t>0.632 (0.591 - 0.677)</t>
+  </si>
+  <si>
+    <t>0.613 (0.583 - 0.676)</t>
+  </si>
+  <si>
+    <t>NA (NA - NA)</t>
+  </si>
+  <si>
+    <t>asc_t12</t>
+  </si>
+  <si>
+    <t>1.098 (1.024 - 1.173)</t>
+  </si>
+  <si>
+    <t>1.131 (1.028 - 1.19)</t>
+  </si>
+  <si>
+    <t>asc_Cl</t>
+  </si>
+  <si>
+    <t>5.657 (5.236 - 7.512)</t>
+  </si>
+  <si>
+    <t>5.221 (4.544 - 5.756)</t>
+  </si>
+  <si>
+    <t>asc_V</t>
+  </si>
+  <si>
+    <t>10.165 (8.463 - 12.5)</t>
+  </si>
+  <si>
+    <t>8.821 (6.778 - 9.369)</t>
+  </si>
+  <si>
+    <t>asc_auc_inf</t>
+  </si>
+  <si>
+    <t>2.488 (1.905 - 2.685)</t>
+  </si>
+  <si>
+    <t>2.448 (2.222 - 2.822)</t>
   </si>
   <si>
     <t>0 (0 - 0)</t>
   </si>
   <si>
-    <t>1011.209 (814.731 - 1229.896)</t>
-  </si>
-  <si>
-    <t>976.038 (736.992 - 1101.888)</t>
+    <t>0.00268121654214817*</t>
+  </si>
+  <si>
+    <t>nac_cmax</t>
   </si>
   <si>
     <t>608.307 (515.723 - 630.091)</t>
@@ -125,6 +182,12 @@
     <t>0.0032932741856553*</t>
   </si>
   <si>
+    <t>nac_tmax</t>
+  </si>
+  <si>
+    <t>nac_auc</t>
+  </si>
+  <si>
     <t>0.848 (0.617 - 0.942)</t>
   </si>
   <si>
@@ -137,12 +200,18 @@
     <t>0.00216450216450216*</t>
   </si>
   <si>
+    <t>nac_auc_30_90</t>
+  </si>
+  <si>
     <t>0.415 (0.287 - 0.462)</t>
   </si>
   <si>
     <t>0.682 (0.663 - 0.731)</t>
   </si>
   <si>
+    <t>nac_c_mean_30_90</t>
+  </si>
+  <si>
     <t>429.289 (302.668 - 473.051)</t>
   </si>
   <si>
@@ -155,28 +224,52 @@
     <t>0.00432900432900433*</t>
   </si>
   <si>
-    <t>0.008 (0.006 - 0.009)</t>
-  </si>
-  <si>
-    <t>0.006 (0.006 - 0.007)</t>
-  </si>
-  <si>
-    <t>91.655 (74.843 - 119.241)</t>
-  </si>
-  <si>
-    <t>107.575 (101.818 - 111.881)</t>
-  </si>
-  <si>
-    <t>14.477 (13.026 - 20.388)</t>
-  </si>
-  <si>
-    <t>15.318 (14.339 - 16.165)</t>
-  </si>
-  <si>
-    <t>2078.513 (1209.512 - 2953.331)</t>
-  </si>
-  <si>
-    <t>2394.353 (2202.805 - 2574.868)</t>
+    <t>nac_ke</t>
+  </si>
+  <si>
+    <t>0.457 (0.353 - 0.558)</t>
+  </si>
+  <si>
+    <t>0.387 (0.372 - 0.409)</t>
+  </si>
+  <si>
+    <t>nac_t12</t>
+  </si>
+  <si>
+    <t>1.528 (1.247 - 1.987)</t>
+  </si>
+  <si>
+    <t>1.793 (1.697 - 1.865)</t>
+  </si>
+  <si>
+    <t>nac_Cl</t>
+  </si>
+  <si>
+    <t>9.182 (6.875 - 11.03)</t>
+  </si>
+  <si>
+    <t>6.953 (6.399 - 7.214)</t>
+  </si>
+  <si>
+    <t>nac_V</t>
+  </si>
+  <si>
+    <t>18.432 (12.489 - 27.196)</t>
+  </si>
+  <si>
+    <t>17.625 (16.814 - 18.433)</t>
+  </si>
+  <si>
+    <t>nac_auc_inf</t>
+  </si>
+  <si>
+    <t>1.335 (1.12 - 1.829)</t>
+  </si>
+  <si>
+    <t>3.525 (3.399 - 3.839)</t>
+  </si>
+  <si>
+    <t>dfo_cmax</t>
   </si>
   <si>
     <t>7.555 (5.795 - 7.823)</t>
@@ -188,6 +281,15 @@
     <t>0.00131840215944075*</t>
   </si>
   <si>
+    <t>dfo_tmax</t>
+  </si>
+  <si>
+    <t>60 (60 - 60)</t>
+  </si>
+  <si>
+    <t>dfo_auc</t>
+  </si>
+  <si>
     <t>0.007 (0.006 - 0.007)</t>
   </si>
   <si>
@@ -197,6 +299,9 @@
     <t>0.00168052175791329*</t>
   </si>
   <si>
+    <t>dfo_auc_30_90</t>
+  </si>
+  <si>
     <t>0.004 (0.004 - 0.004)</t>
   </si>
   <si>
@@ -206,6 +311,9 @@
     <t>0.00260110186765231*</t>
   </si>
   <si>
+    <t>dfo_c_mean_30_90</t>
+  </si>
+  <si>
     <t>4.043 (3.652 - 4.201)</t>
   </si>
   <si>
@@ -215,67 +323,58 @@
     <t>0.00186310589148138*</t>
   </si>
   <si>
-    <t>0.024 (0.019 - 0.064)</t>
-  </si>
-  <si>
-    <t>0.038 (0.018 - 0.108)</t>
-  </si>
-  <si>
-    <t>29.403 (13.091 - 36.262)</t>
-  </si>
-  <si>
-    <t>21.538 (7.424 - 38.391)</t>
-  </si>
-  <si>
-    <t>259.891 (254.677 - 291.949)</t>
-  </si>
-  <si>
-    <t>592.679 (525.751 - 798.679)</t>
-  </si>
-  <si>
-    <t>0.0411255411255411*</t>
-  </si>
-  <si>
-    <t>10980.051 (5263.16 - 23899.723)</t>
-  </si>
-  <si>
-    <t>23582.193 (5667.291 - 48776.753)</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>nac</t>
-  </si>
-  <si>
-    <t>dfo</t>
-  </si>
-  <si>
-    <t>cmax</t>
-  </si>
-  <si>
-    <t>auc</t>
-  </si>
-  <si>
-    <t>auc_30_90</t>
-  </si>
-  <si>
-    <t>c_mean_30_90</t>
-  </si>
-  <si>
-    <t>ke</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>dfo_ke</t>
+  </si>
+  <si>
+    <t>1.444 (1.149 - 3.859)</t>
+  </si>
+  <si>
+    <t>2.256 (1.105 - 6.508)</t>
+  </si>
+  <si>
+    <t>dfo_t12</t>
+  </si>
+  <si>
+    <t>0.49 (0.218 - 0.604)</t>
+  </si>
+  <si>
+    <t>0.359 (0.124 - 0.64)</t>
+  </si>
+  <si>
+    <t>dfo_Cl</t>
+  </si>
+  <si>
+    <t>222.903 (213.117 - 269.209)</t>
+  </si>
+  <si>
+    <t>480.248 (384.292 - 608.431)</t>
+  </si>
+  <si>
+    <t>0.016309171877755*</t>
+  </si>
+  <si>
+    <t>0.0151515151515152*</t>
+  </si>
+  <si>
+    <t>dfo_V</t>
+  </si>
+  <si>
+    <t>157.608 (80.21 - 293.829)</t>
+  </si>
+  <si>
+    <t>315.957 (85.313 - 568.103)</t>
+  </si>
+  <si>
+    <t>dfo_auc_inf</t>
+  </si>
+  <si>
+    <t>0.008 (0.007 - 0.008)</t>
+  </si>
+  <si>
+    <t>0.006 (0.005 - 0.008)</t>
+  </si>
+  <si>
+    <t>0.00249294685338575*</t>
   </si>
 </sst>
 </file>
@@ -806,29 +905,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1138,699 +1215,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0.30952380952380998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.93722943722943697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0.69913419913419905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0.48484848484848497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>0.30952380952380998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0.200184804177579</v>
+      </c>
+      <c r="F9">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>0.200184804177579</v>
+      </c>
+      <c r="F10">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>0.93722943722943697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>0.69913419913419905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0.48484848484848497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>0.93722943722943697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>0.58874458874458901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>0.14285714285714299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>0.48484848484848497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>0.42333964158244303</v>
+      </c>
+      <c r="F17">
         <v>0.48484848484848497</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>0.42333964158244303</v>
+      </c>
+      <c r="F18">
+        <v>0.48484848484848497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0.200184804177579</v>
+      </c>
+      <c r="F19">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>0.74877404170654804</v>
+      </c>
+      <c r="F20">
         <v>0.81818181818181801</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17">
-        <v>0.69913419913419905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>9.30735930735931E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>0.17965367965368001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>0.69913419913419905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>9.30735930735931E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>0.17965367965368001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <v>0.69913419913419905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26">
         <v>0.24025974025974001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0.63095404118416898</v>
+      </c>
+      <c r="F27">
         <v>0.69913419913419905</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>0.63095404118416898</v>
+      </c>
+      <c r="F28">
         <v>0.69913419913419905</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>0.42333964158244303</v>
+      </c>
+      <c r="F30">
         <v>0.48484848484848497</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31">
+        <v>0.58874458874458901</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT(F1,LEN("*"))="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>0.48484848484848497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>0.48484848484848497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>0.93722943722943697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>0.58874458874458901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
+      <c r="D9">
+        <v>0.24025974025974001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10">
         <v>0.48484848484848497</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7">
-        <v>0.48484848484848497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>0.81818181818181801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
         <v>0.69913419913419905</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
         <v>0.69913419913419905</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11">
-        <v>0.69913419913419905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13">
-        <v>0.48484848484848497</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E13">
-    <cfRule type="endsWith" dxfId="0" priority="4" operator="endsWith" text="*">
-      <formula>RIGHT(E1,LEN("*"))="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>